--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3900.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3900.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.74283341641179</v>
+        <v>1.353155374526978</v>
       </c>
       <c r="B1">
-        <v>1.972042613423712</v>
+        <v>2.677488565444946</v>
       </c>
       <c r="C1">
-        <v>2.412747532244027</v>
+        <v>4.175845146179199</v>
       </c>
       <c r="D1">
-        <v>4.570433318806912</v>
+        <v>4.245255947113037</v>
       </c>
       <c r="E1">
-        <v>4.057555578616035</v>
+        <v>1.70209801197052</v>
       </c>
     </row>
   </sheetData>
